--- a/public/exceltemplate/import.xlsx
+++ b/public/exceltemplate/import.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>商品SKU数据导入模板</t>
   </si>
@@ -331,247 +331,43 @@
     <t>例；可删除</t>
   </si>
   <si>
-    <t>江西绿丰椴树蜂蜜500g（纯）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6938507900339</t>
-  </si>
-  <si>
     <t>熟食类</t>
   </si>
   <si>
-    <t>21ml</t>
-  </si>
-  <si>
-    <t>A-002</t>
-  </si>
-  <si>
-    <t>江西绿丰百花蜂蜜500g（纯）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6938507900193</t>
-  </si>
-  <si>
     <t>烟酒茶叶</t>
   </si>
   <si>
-    <t>22ml</t>
-  </si>
-  <si>
-    <t>A-003</t>
-  </si>
-  <si>
-    <t>江西绿丰洋槐蜂蜜500g（纯）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6938507900025</t>
-  </si>
-  <si>
-    <t>23ml</t>
-  </si>
-  <si>
-    <t>A-004</t>
-  </si>
-  <si>
-    <t>江西绿丰枣花蜂蜜500g（纯）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6938507900087</t>
+    <t>休闲零食</t>
   </si>
   <si>
     <t>生鲜水果</t>
   </si>
   <si>
-    <t>24ml</t>
-  </si>
-  <si>
-    <t>A-005</t>
-  </si>
-  <si>
-    <t>恋园酸辣粉138g</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6921670301683</t>
-  </si>
-  <si>
     <t>家居清洁</t>
   </si>
   <si>
-    <t>25ml</t>
-  </si>
-  <si>
-    <t>A-006</t>
-  </si>
-  <si>
-    <t>香辣牛板筋15g</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6952182300772</t>
-  </si>
-  <si>
     <t>餐具厨具</t>
   </si>
   <si>
-    <t>26ml</t>
-  </si>
-  <si>
-    <t>A-007</t>
-  </si>
-  <si>
-    <t>烧烤牛板筋15g</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6952182300758</t>
-  </si>
-  <si>
     <t>美妆个护</t>
   </si>
   <si>
-    <t>27ml</t>
-  </si>
-  <si>
-    <t>A-008</t>
-  </si>
-  <si>
-    <t>麻辣牛板筋15g</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6952182300765</t>
-  </si>
-  <si>
     <t>母婴玩具</t>
   </si>
   <si>
-    <t>28ml</t>
-  </si>
-  <si>
-    <t>A-009</t>
-  </si>
-  <si>
-    <t>八大怪酒150ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6956442601678</t>
-  </si>
-  <si>
     <t>生活电器</t>
   </si>
   <si>
-    <t>29ml</t>
-  </si>
-  <si>
-    <t>A-010</t>
-  </si>
-  <si>
-    <t>山椒凤爪2枚装</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6939341500310</t>
-  </si>
-  <si>
     <t>文具用品</t>
   </si>
   <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>A-011</t>
-  </si>
-  <si>
-    <t>山椒凤爪单枚装</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6920872700058</t>
-  </si>
-  <si>
     <t>箱包户外</t>
   </si>
   <si>
-    <t>31ml</t>
-  </si>
-  <si>
-    <t>A-012</t>
-  </si>
-  <si>
-    <t>山椒鸡蛋3枚装</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6949700200188</t>
-  </si>
-  <si>
     <t>电子产品</t>
   </si>
   <si>
-    <t>32ml</t>
-  </si>
-  <si>
-    <t>A-013</t>
-  </si>
-  <si>
-    <t>泡椒鸡蛋单枚装</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6949700280081</t>
-  </si>
-  <si>
     <t>其他</t>
-  </si>
-  <si>
-    <t>33ml</t>
-  </si>
-  <si>
-    <t>A-014</t>
-  </si>
-  <si>
-    <t>乡巴佬鸡蛋3枚装带皮</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6949700280029</t>
-  </si>
-  <si>
-    <t>34ml</t>
-  </si>
-  <si>
-    <t>A-015</t>
-  </si>
-  <si>
-    <t>乡巴佬鸡蛋</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6949700288902</t>
-  </si>
-  <si>
-    <t>休闲零食</t>
-  </si>
-  <si>
-    <t>35ml</t>
-  </si>
-  <si>
-    <t>A-016</t>
-  </si>
-  <si>
-    <t>沟帮子五香味风干肉条15g</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6952625803952</t>
-  </si>
-  <si>
-    <t>36ml</t>
-  </si>
-  <si>
-    <t>A-017</t>
-  </si>
-  <si>
-    <t>沟帮子辣味风干肉条15g</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6952625803938</t>
-  </si>
-  <si>
-    <t>37ml</t>
-  </si>
-  <si>
-    <t>A-018</t>
   </si>
 </sst>
 </file>
@@ -579,9 +375,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -641,10 +437,138 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,134 +579,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -793,6 +589,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -823,24 +655,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -859,7 +673,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,25 +709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,12 +757,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -962,18 +770,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,24 +835,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1072,6 +850,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1083,6 +881,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,19 +927,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,10 +940,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1156,133 +952,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1317,7 +1113,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1658,8 +1454,8 @@
   <sheetPr/>
   <dimension ref="B1:BC290"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1668,15 +1464,15 @@
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="20.9333333333333" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="9" width="8.75" customWidth="1"/>
     <col min="10" max="11" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="7.375" customWidth="1"/>
     <col min="13" max="13" width="10.375" customWidth="1"/>
-    <col min="14" max="14" width="24.2666666666667" customWidth="1"/>
-    <col min="15" max="15" width="25.5166666666667" customWidth="1"/>
+    <col min="14" max="14" width="28" customWidth="1"/>
+    <col min="15" max="15" width="28.75" customWidth="1"/>
     <col min="16" max="16" width="10.2083333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1809,752 +1605,276 @@
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="10">
-        <v>21.43</v>
-      </c>
-      <c r="I6" s="10">
-        <v>15</v>
-      </c>
-      <c r="J6" s="9">
-        <v>200</v>
-      </c>
-      <c r="K6" s="9">
-        <v>120</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="13">
-        <v>43701</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>1</v>
-      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="10">
-        <v>21.43</v>
-      </c>
-      <c r="I7" s="10">
-        <v>15</v>
-      </c>
-      <c r="J7" s="9">
-        <v>200</v>
-      </c>
-      <c r="K7" s="9">
-        <v>120</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="13">
-        <v>43702</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>1</v>
-      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="10">
-        <v>21.43</v>
-      </c>
-      <c r="I8" s="10">
-        <v>15</v>
-      </c>
-      <c r="J8" s="9">
-        <v>200</v>
-      </c>
-      <c r="K8" s="9">
-        <v>120</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="13">
-        <v>43703</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <v>1</v>
-      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="10">
-        <v>21.43</v>
-      </c>
-      <c r="I9" s="10">
-        <v>15</v>
-      </c>
-      <c r="J9" s="9">
-        <v>200</v>
-      </c>
-      <c r="K9" s="9">
-        <v>120</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="13">
-        <v>43704</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <v>1</v>
-      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="10">
-        <v>8.57</v>
-      </c>
-      <c r="I10" s="10">
-        <v>6</v>
-      </c>
-      <c r="J10" s="9">
-        <v>200</v>
-      </c>
-      <c r="K10" s="9">
-        <v>120</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="13">
-        <v>43705</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
-        <v>1</v>
-      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="10">
-        <v>2.14</v>
-      </c>
-      <c r="I11" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="J11" s="9">
-        <v>200</v>
-      </c>
-      <c r="K11" s="9">
-        <v>120</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="13">
-        <v>43706</v>
-      </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
-        <v>1</v>
-      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="10">
-        <v>2.14</v>
-      </c>
-      <c r="I12" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="J12" s="9">
-        <v>200</v>
-      </c>
-      <c r="K12" s="9">
-        <v>120</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="13">
-        <v>43707</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
-        <v>1</v>
-      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="10">
-        <v>2.14</v>
-      </c>
-      <c r="I13" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="J13" s="9">
-        <v>200</v>
-      </c>
-      <c r="K13" s="9">
-        <v>120</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" s="13">
-        <v>43708</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <v>1</v>
-      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="10">
-        <v>4.29</v>
-      </c>
-      <c r="I14" s="10">
-        <v>3</v>
-      </c>
-      <c r="J14" s="9">
-        <v>200</v>
-      </c>
-      <c r="K14" s="9">
-        <v>120</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="13">
-        <v>43709</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
-        <v>1</v>
-      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="10">
-        <v>3.71</v>
-      </c>
-      <c r="I15" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="J15" s="9">
-        <v>200</v>
-      </c>
-      <c r="K15" s="9">
-        <v>120</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="13">
-        <v>43710</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0</v>
-      </c>
-      <c r="O15" s="9">
-        <v>1</v>
-      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="10">
-        <v>1.86</v>
-      </c>
-      <c r="I16" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="J16" s="9">
-        <v>200</v>
-      </c>
-      <c r="K16" s="9">
-        <v>120</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="13">
-        <v>43711</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9">
-        <v>1</v>
-      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="10">
-        <v>3.71</v>
-      </c>
-      <c r="I17" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="J17" s="9">
-        <v>200</v>
-      </c>
-      <c r="K17" s="9">
-        <v>120</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" s="13">
-        <v>43712</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0</v>
-      </c>
-      <c r="O17" s="9">
-        <v>1</v>
-      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1.29</v>
-      </c>
-      <c r="I18" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="J18" s="9">
-        <v>200</v>
-      </c>
-      <c r="K18" s="9">
-        <v>120</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="M18" s="13">
-        <v>43713</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
-        <v>1</v>
-      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="10">
-        <v>4</v>
-      </c>
-      <c r="I19" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="J19" s="9">
-        <v>200</v>
-      </c>
-      <c r="K19" s="9">
-        <v>120</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M19" s="13">
-        <v>43714</v>
-      </c>
-      <c r="N19" s="9">
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
-        <v>1</v>
-      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="10">
-        <v>1.14</v>
-      </c>
-      <c r="I20" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="J20" s="9">
-        <v>200</v>
-      </c>
-      <c r="K20" s="9">
-        <v>120</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="13">
-        <v>43715</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0</v>
-      </c>
-      <c r="O20" s="9">
-        <v>1</v>
-      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="10">
-        <v>2.14</v>
-      </c>
-      <c r="I21" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="J21" s="9">
-        <v>200</v>
-      </c>
-      <c r="K21" s="9">
-        <v>120</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21" s="13">
-        <v>43716</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-      <c r="O21" s="9">
-        <v>1</v>
-      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="10">
-        <v>2.14</v>
-      </c>
-      <c r="I22" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="J22" s="9">
-        <v>200</v>
-      </c>
-      <c r="K22" s="9">
-        <v>120</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M22" s="13">
-        <v>43717</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-      <c r="O22" s="9">
-        <v>1</v>
-      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="11"/>
@@ -2686,17 +2006,17 @@
     </row>
     <row r="277" spans="55:55">
       <c r="BC277" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="278" spans="55:55">
       <c r="BC278" s="14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="279" spans="55:55">
       <c r="BC279" s="14" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="280" spans="55:55">
@@ -2706,52 +2026,52 @@
     </row>
     <row r="281" spans="55:55">
       <c r="BC281" s="14" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="282" spans="55:55">
       <c r="BC282" s="14" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="283" spans="55:55">
       <c r="BC283" s="14" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="284" spans="55:55">
       <c r="BC284" s="14" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="285" spans="55:55">
       <c r="BC285" s="14" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="286" spans="55:55">
       <c r="BC286" s="14" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="287" spans="55:55">
       <c r="BC287" s="14" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="288" spans="55:55">
       <c r="BC288" s="14" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="289" spans="55:55">
       <c r="BC289" s="14" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="290" spans="55:55">
       <c r="BC290" s="14" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/public/exceltemplate/import.xlsx
+++ b/public/exceltemplate/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28770" windowHeight="12165"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="商品SKU数据导入模板" sheetId="1" r:id="rId1"/>
@@ -260,14 +260,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>※</t>
     </r>
     <r>
@@ -279,19 +271,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>是否上架（0 上架 1不上架）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+      <t>是否上架（1上架 0下架）</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>※</t>
     </r>
     <r>
@@ -303,7 +287,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>是否快捷（0 快捷 1不快捷）</t>
+      <t>是否快捷（1快捷 0不快捷）</t>
     </r>
   </si>
   <si>
@@ -375,10 +359,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -436,6 +420,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -444,15 +494,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,120 +563,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -589,6 +573,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -601,31 +597,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,139 +717,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,41 +820,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -885,26 +834,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,8 +867,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,10 +924,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -952,133 +936,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1455,7 +1439,7 @@
   <dimension ref="B1:BC290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1595,7 +1579,7 @@
         <v>43700</v>
       </c>
       <c r="N5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="9">
         <v>1</v>
